--- a/data/trans_camb/P25A_7_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_7_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,31</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,91</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,36</t>
+          <t>5,65</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,26</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,2; -0,09</t>
+          <t>-7,37; -0,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,49</t>
+          <t>-4,55; 3,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,55; 58,33</t>
+          <t>-4,48; 3,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 1,39</t>
+          <t>-0,47; 7,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 0,45</t>
+          <t>-4,9; 2,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,45; 50,08</t>
+          <t>-7,01; 1,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,96; -0,44</t>
+          <t>-7,88; 0,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 0,63</t>
+          <t>-4,92; 4,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42,55; 52,49</t>
+          <t>1,4; 10,44</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 6,1</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; -0,05</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 1,0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 2,89</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 7,54</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 3,26</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-31,76%</t>
+          <t>-31,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>-2,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>450,49%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,62%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,73%</t>
+          <t>-6,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>201,48%</t>
+          <t>-13,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-19,13%</t>
+          <t>-15,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>-2,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>283,4%</t>
+          <t>26,37%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-19,34%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-11,32%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-2,61%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>27,42%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,19; 0,78</t>
+          <t>-53,08; -2,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 38,44</t>
+          <t>-33,9; 38,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>303,18; 643,03</t>
+          <t>-33,38; 34,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 7,93</t>
+          <t>-3,54; 86,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,01; 2,25</t>
+          <t>-27,91; 19,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>154,03; 256,78</t>
+          <t>-29,09; 9,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,7; -2,74</t>
+          <t>-31,75; 4,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 4,19</t>
+          <t>-20,58; 22,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>229,94; 347,45</t>
+          <t>5,51; 53,45</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-10,57; 26,03</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-31,45; 0,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-26,01; 6,45</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-20,18; 18,77</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,85; 50,59</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 17,38</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>58,2</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,57</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>56,76</t>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,05</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 5,13</t>
+          <t>-1,96; 4,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,87</t>
+          <t>0,25; 8,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,67; 70,13</t>
+          <t>3,24; 12,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 4,46</t>
+          <t>-5,59; 6,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 11,09</t>
+          <t>-8,36; 3,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,36; 64,36</t>
+          <t>-6,38; 3,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,59</t>
+          <t>0,24; 9,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 8,22</t>
+          <t>0,99; 12,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,03; 64,17</t>
+          <t>-5,14; 9,89</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-10,28; 8,15</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 3,06</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 7,68</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 10,9</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 5,77</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 3,76</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>71,27%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>897,54%</t>
+          <t>105,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>-11,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>341,09%</t>
+          <t>-7,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>28,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,12%</t>
+          <t>39,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>503,75%</t>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,76%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>37,69%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>58,59%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-5,62%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 107,79</t>
+          <t>-24,12; 91,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,76; 184,18</t>
+          <t>0,7; 155,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>591,52; 1417,51</t>
+          <t>36,34; 238,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 33,51</t>
+          <t>-33,7; 53,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 81,38</t>
+          <t>-42,72; 27,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>240,48; 464,56</t>
+          <t>-30,9; 23,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 35,93</t>
+          <t>0,35; 70,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,22; 83,23</t>
+          <t>4,68; 87,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>388,0; 657,95</t>
+          <t>-18,58; 46,94</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-31,44; 39,71</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-22,86; 30,09</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 73,98</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>20,14; 101,68</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-17,66; 34,0</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-26,98; 20,12</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,11</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-4,26</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>2,8</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,97</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,32</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-7,58</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-2,94</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-2,39</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 9,31</t>
+          <t>-5,45; 8,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 18,29</t>
+          <t>-2,62; 20,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-0,51; 29,03</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-19,28; 2,07</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 7,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-14,35; 4,28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 9,8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-10,74; 11,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-10,22; 4,43</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,98; 9,13</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 4,62</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 11,82</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 16,58</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>110,77%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-28,7%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-18,12%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-13,92%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,98%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-6,88%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17,24%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>32,76%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,27; 194,57</t>
+          <t>-41,98; 156,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 358,38</t>
+          <t>-28,29; 365,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-18,53; 487,93</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-56,99; 13,26</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,7; 34,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-48,03; 24,98</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-34,36; 54,65</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-37,96; 56,9</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-45,9; 33,87</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-30,39; 66,21</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-37,57; 37,15</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-21,91; 83,27</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; 122,51</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>53,35</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,66</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>50,34</t>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,54</t>
+          <t>-3,2; 1,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 5,16</t>
+          <t>-0,58; 4,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>47,16; 60,46</t>
+          <t>1,05; 7,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,72</t>
+          <t>-2,62; 4,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,14</t>
+          <t>-4,43; 2,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,17; 52,22</t>
+          <t>-5,5; 0,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,41</t>
+          <t>-2,8; 3,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,48</t>
+          <t>-0,9; 6,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46,06; 54,34</t>
+          <t>0,49; 8,15</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 4,87</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 0,23</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 3,3</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 5,61</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 5,07</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 2,51</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,83%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>598,31%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>232,33%</t>
+          <t>-12,34%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>344,18%</t>
+          <t>18,43%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-11,52%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>21,41%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 20,9</t>
+          <t>-30,57; 19,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 64,97</t>
+          <t>-7,25; 60,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>445,57; 769,71</t>
+          <t>8,85; 95,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 3,83</t>
+          <t>-17,86; 39,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 16,95</t>
+          <t>-25,59; 15,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>189,26; 280,47</t>
+          <t>-24,93; 1,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 3,19</t>
+          <t>-12,85; 18,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 25,2</t>
+          <t>-5,2; 33,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>294,96; 402,02</t>
+          <t>1,8; 40,14</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-10,22; 20,57</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-22,71; 1,77</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; 23,25</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 41,34</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 30,89</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-12,61; 12,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
